--- a/Designs In Progress/QWERTY_alone/keyboard_predict.xlsx
+++ b/Designs In Progress/QWERTY_alone/keyboard_predict.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="keyboard" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="167">
-  <si>
-    <t xml:space="preserve">role</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="164">
   <si>
     <t xml:space="preserve">case</t>
   </si>
@@ -38,9 +35,6 @@
     <t xml:space="preserve">label</t>
   </si>
   <si>
-    <t xml:space="preserve">kb</t>
-  </si>
-  <si>
     <t xml:space="preserve">lower</t>
   </si>
   <si>
@@ -231,9 +225,6 @@
   </si>
   <si>
     <t xml:space="preserve">Speak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">predict</t>
   </si>
   <si>
     <t xml:space="preserve">about</t>
@@ -627,19 +618,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,1287 +645,1053 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>11</v>
+      <c r="D6" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>12</v>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>13</v>
+      <c r="D8" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>14</v>
+      <c r="D9" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>15</v>
+      <c r="D10" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>16</v>
+      <c r="D11" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>17</v>
+      <c r="D13" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>20</v>
+      <c r="D16" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>21</v>
+      <c r="D17" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>22</v>
+      <c r="D18" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>23</v>
+      <c r="D19" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>24</v>
+      <c r="D20" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>25</v>
+      <c r="D21" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D22" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D23" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>26</v>
+      <c r="D24" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>28</v>
+      <c r="D26" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C27" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>29</v>
+      <c r="D27" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D28" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>30</v>
+      <c r="D28" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D29" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>31</v>
+      <c r="D29" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D30" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>32</v>
+      <c r="D30" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D31" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D33" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D34" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>34</v>
+      <c r="D35" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>34</v>
+      <c r="D36" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C37" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>34</v>
+      <c r="D37" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>36</v>
+      <c r="D38" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>39</v>
+        <v>4</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>40</v>
+      <c r="D42" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E43" s="0" t="s">
-        <v>41</v>
+      <c r="D43" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>42</v>
+      <c r="D44" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E45" s="0" t="s">
-        <v>43</v>
+      <c r="D45" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E46" s="0" t="s">
-        <v>44</v>
+      <c r="D46" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E47" s="0" t="s">
-        <v>45</v>
+      <c r="D47" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D48" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>46</v>
+      <c r="D49" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>47</v>
+        <v>3</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>48</v>
+        <v>4</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>49</v>
+      <c r="D52" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D53" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E53" s="0" t="s">
-        <v>50</v>
+      <c r="D53" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D54" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E54" s="0" t="s">
-        <v>51</v>
+      <c r="D54" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D55" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E55" s="0" t="s">
-        <v>52</v>
+      <c r="D55" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D56" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E56" s="0" t="s">
-        <v>53</v>
+      <c r="D56" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D57" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E57" s="0" t="s">
-        <v>54</v>
+      <c r="D57" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D58" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D59" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D60" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>55</v>
+      <c r="D60" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D61" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>56</v>
+        <v>4</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D62" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>57</v>
+      <c r="D62" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D63" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E63" s="0" t="s">
-        <v>58</v>
+      <c r="D63" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D64" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E64" s="0" t="s">
-        <v>59</v>
+      <c r="D64" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D65" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E65" s="0" t="s">
-        <v>60</v>
+      <c r="D65" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D66" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E66" s="0" t="s">
-        <v>61</v>
+      <c r="D66" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D67" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D68" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D69" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>34</v>
+      <c r="D69" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C70" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D70" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>34</v>
+      <c r="D70" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D71" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E71" s="0" t="s">
-        <v>34</v>
+      <c r="D71" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B72" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="C72" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D72" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E72" s="0" t="s">
-        <v>63</v>
+      <c r="D72" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="C73" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D73" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="C73" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D73" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D74" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E74" s="0" t="s">
-        <v>65</v>
+      <c r="D74" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D75" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E75" s="0" t="s">
-        <v>66</v>
+      <c r="D75" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D76" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E76" s="0" t="s">
-        <v>67</v>
+      <c r="D76" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B77" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="C77" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D77" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E77" s="0" t="s">
-        <v>68</v>
+      <c r="D77" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D78" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E78" s="0" t="s">
-        <v>69</v>
+      <c r="D78" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1954,820 +1710,517 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Designs In Progress/QWERTY_alone/keyboard_predict.xlsx
+++ b/Designs In Progress/QWERTY_alone/keyboard_predict.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="keyboard" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="165">
   <si>
     <t xml:space="preserve">case</t>
   </si>
@@ -35,6 +35,9 @@
     <t xml:space="preserve">label</t>
   </si>
   <si>
+    <t xml:space="preserve">newcase</t>
+  </si>
+  <si>
     <t xml:space="preserve">lower</t>
   </si>
   <si>
@@ -119,10 +122,10 @@
     <t xml:space="preserve">CAPS</t>
   </si>
   <si>
+    <t xml:space="preserve">upper</t>
+  </si>
+  <si>
     <t xml:space="preserve">SPACE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upper</t>
   </si>
   <si>
     <t xml:space="preserve">Q</t>
@@ -527,6 +530,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -548,6 +552,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -618,16 +623,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F71" activeCellId="0" sqref="F71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.38"/>
   </cols>
@@ -645,10 +650,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -657,12 +665,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -671,12 +679,12 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -685,12 +693,12 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
@@ -699,12 +707,12 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -713,12 +721,12 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -727,12 +735,12 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
@@ -741,12 +749,12 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -755,12 +763,12 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -769,12 +777,12 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -783,12 +791,12 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2</v>
@@ -799,7 +807,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>2</v>
@@ -808,12 +816,12 @@
         <v>2</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2</v>
@@ -822,12 +830,12 @@
         <v>3</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2</v>
@@ -836,12 +844,12 @@
         <v>4</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>2</v>
@@ -850,12 +858,12 @@
         <v>5</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2</v>
@@ -864,12 +872,12 @@
         <v>6</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2</v>
@@ -878,12 +886,12 @@
         <v>7</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2</v>
@@ -892,12 +900,12 @@
         <v>8</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>2</v>
@@ -906,12 +914,12 @@
         <v>9</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>2</v>
@@ -920,12 +928,12 @@
         <v>10</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>3</v>
@@ -936,7 +944,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>3</v>
@@ -947,7 +955,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>3</v>
@@ -956,12 +964,12 @@
         <v>3</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>3</v>
@@ -970,12 +978,12 @@
         <v>4</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>3</v>
@@ -984,12 +992,12 @@
         <v>5</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>3</v>
@@ -998,12 +1006,12 @@
         <v>6</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>3</v>
@@ -1012,12 +1020,12 @@
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>3</v>
@@ -1026,12 +1034,12 @@
         <v>8</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>3</v>
@@ -1040,12 +1048,12 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>3</v>
@@ -1056,7 +1064,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4</v>
@@ -1065,12 +1073,15 @@
         <v>1</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>4</v>
@@ -1081,7 +1092,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>4</v>
@@ -1092,7 +1103,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>4</v>
@@ -1101,12 +1112,12 @@
         <v>4</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>4</v>
@@ -1115,12 +1126,12 @@
         <v>5</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>4</v>
@@ -1129,7 +1140,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1157,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1171,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1185,7 +1196,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,7 +1210,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1213,7 +1224,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1227,7 +1238,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,7 +1252,7 @@
         <v>8</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,7 +1266,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,7 +1280,7 @@
         <v>10</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1294,7 +1305,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1308,7 +1319,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1322,7 +1333,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1336,7 +1347,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1350,7 +1361,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1364,7 +1375,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1378,7 +1389,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1392,7 +1403,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1406,7 +1417,7 @@
         <v>10</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1442,7 +1453,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,7 +1467,7 @@
         <v>4</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1470,7 +1481,7 @@
         <v>5</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1484,7 +1495,7 @@
         <v>6</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1498,7 +1509,7 @@
         <v>7</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1512,7 +1523,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1526,7 +1537,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1551,7 +1562,10 @@
         <v>1</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1565,7 +1579,7 @@
         <v>4</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,12 +1607,12 @@
         <v>6</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>5</v>
@@ -1607,12 +1621,12 @@
         <v>8</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>5</v>
@@ -1621,12 +1635,12 @@
         <v>9</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>6</v>
@@ -1635,12 +1649,12 @@
         <v>8</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>6</v>
@@ -1649,12 +1663,12 @@
         <v>9</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>4</v>
@@ -1663,12 +1677,12 @@
         <v>10</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>5</v>
@@ -1677,12 +1691,12 @@
         <v>10</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>6</v>
@@ -1691,7 +1705,7 @@
         <v>10</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1712,11 +1726,11 @@
   </sheetPr>
   <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1725,508 +1739,508 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Designs In Progress/QWERTY_alone/keyboard_predict.xlsx
+++ b/Designs In Progress/QWERTY_alone/keyboard_predict.xlsx
@@ -625,8 +625,8 @@
   </sheetPr>
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F71" activeCellId="0" sqref="F71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -650,7 +650,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
   <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A37 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
